--- a/Files/Test Plan for Professional Practices.xlsx
+++ b/Files/Test Plan for Professional Practices.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niall\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niall\Documents\College\Third Year Semester 2\Mobile App Development\Project\RoadDisturbanceLocator\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Purpose:</t>
   </si>
@@ -116,6 +116,42 @@
   </si>
   <si>
     <t>Amazon.co.uk Login validation</t>
+  </si>
+  <si>
+    <t>TC.001</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>1. Launch Home page</t>
+  </si>
+  <si>
+    <t>Opening App</t>
+  </si>
+  <si>
+    <t>Google Maps will be displayed with the users location</t>
+  </si>
+  <si>
+    <t>Google maps displayed, accurately displaying the users location</t>
+  </si>
+  <si>
+    <t>TC.002</t>
+  </si>
+  <si>
+    <t>Markers</t>
+  </si>
+  <si>
+    <t>Users position displayed with markers of potholes or accidents close by</t>
+  </si>
+  <si>
+    <t>1. Launch Home page 2.Review Markers Positions</t>
+  </si>
+  <si>
+    <t>The users location will be displayed in the centre of the screen, and markers in the surrounding area</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -873,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,38 +1002,70 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="J4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>1</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="J5" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
@@ -1015,7 +1083,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="23" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="16"/>

--- a/Files/Test Plan for Professional Practices.xlsx
+++ b/Files/Test Plan for Professional Practices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>Purpose:</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Test Case Name</t>
-  </si>
-  <si>
-    <t>3.00 and 4.00</t>
   </si>
   <si>
     <t>Amazon.co.uk Login validation</t>
@@ -393,7 +390,112 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -802,7 +904,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,7 +942,7 @@
     </row>
     <row r="2" spans="1:12" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -902,25 +1004,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>12</v>
@@ -936,25 +1038,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>12</v>
@@ -970,25 +1072,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>12</v>
@@ -996,54 +1098,102 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="J7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="J8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="J9" s="8" t="s">
         <v>12</v>
       </c>
@@ -1379,48 +1529,81 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1:J4 J7:J18 J20:J1048576">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Invalid Test">
+  <conditionalFormatting sqref="J1:J4 J10:J18 J20:J1048576">
+    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/Test Plan for Professional Practices.xlsx
+++ b/Files/Test Plan for Professional Practices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Purpose:</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Test Case Name</t>
   </si>
   <si>
-    <t>3.00 and 4.00</t>
-  </si>
-  <si>
     <t>Amazon.co.uk Login validation</t>
   </si>
   <si>
@@ -147,13 +144,31 @@
   </si>
   <si>
     <t>1. Launch Home page
-2. Retrieve Login panel</t>
-  </si>
-  <si>
-    <t>Company logo is displayed on the left hand side of login panel</t>
-  </si>
-  <si>
-    <t>Company logo is not displayed on the left hand side of page</t>
+2. Add Markers</t>
+  </si>
+  <si>
+    <t>Select markers from the add markers button in the top left corner</t>
+  </si>
+  <si>
+    <t>The user selected a marker from the buttons in the top left corner</t>
+  </si>
+  <si>
+    <t>Click the potholes markers, the marker will be added on the users location.</t>
+  </si>
+  <si>
+    <t>The user clicked the desired marker and it was added to the users location</t>
+  </si>
+  <si>
+    <t>If the user selects pothole markers an orange "p" marker will be added to the screen</t>
+  </si>
+  <si>
+    <t>The user selected pothole marker and an orange "p" marker landed on the map in the users location</t>
+  </si>
+  <si>
+    <t>If the user selects Accident markers a red "A" marker will be added to the screen</t>
+  </si>
+  <si>
+    <t>The user selected Accident marker and a re "A" marker was added to the users location</t>
   </si>
 </sst>
 </file>
@@ -393,7 +408,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -801,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,7 +897,7 @@
     </row>
     <row r="2" spans="1:12" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -902,25 +959,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>12</v>
@@ -936,25 +993,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>12</v>
@@ -962,7 +1019,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -970,25 +1027,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>12</v>
@@ -996,54 +1053,102 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="J7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="J9" s="8" t="s">
         <v>12</v>
       </c>
@@ -1379,48 +1484,81 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1:J4 J7:J18 J20:J1048576">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Invalid Test">
+  <conditionalFormatting sqref="J1:J4 J10:J18 J20:J1048576">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",J9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/Test Plan for Professional Practices.xlsx
+++ b/Files/Test Plan for Professional Practices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>Purpose:</t>
   </si>
@@ -134,13 +134,7 @@
     <t>Users position displayed with markers of potholes or accidents close by</t>
   </si>
   <si>
-    <t>1. Launch Home page 2.Review Markers Positions</t>
-  </si>
-  <si>
     <t>The users location will be displayed in the centre of the screen, and markers in the surrounding area</t>
-  </si>
-  <si>
-    <t>Login panel display</t>
   </si>
   <si>
     <t>1. Launch Home page
@@ -859,7 +853,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,16 +996,16 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>12</v>
@@ -1030,22 +1024,22 @@
         <v>18</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>12</v>
@@ -1064,22 +1058,22 @@
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>12</v>
@@ -1098,22 +1092,22 @@
         <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>12</v>
@@ -1132,22 +1126,22 @@
         <v>18</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>12</v>

--- a/Files/Test Plan for Professional Practices.xlsx
+++ b/Files/Test Plan for Professional Practices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>Purpose:</t>
   </si>
@@ -162,7 +162,50 @@
     <t>If the user selects Accident markers a red "A" marker will be added to the screen</t>
   </si>
   <si>
-    <t>The user selected Accident marker and a re "A" marker was added to the users location</t>
+    <t>The user selected Accident marker and a red "A" marker was added to the users location</t>
+  </si>
+  <si>
+    <t>1. Launch Home page
+2. Login</t>
+  </si>
+  <si>
+    <t>The admin button is located in the top right hand side of the page in the menu bar</t>
+  </si>
+  <si>
+    <t>The login/admin button is located n the left hand side of the screen in the menu bar</t>
+  </si>
+  <si>
+    <t>Once the user clicks "Admin", they will be redirected to the login page, where they will be prompted to enter the username and password</t>
+  </si>
+  <si>
+    <t>The user clicks the Admin button, and is redirected to the login page, where they are promepted for login details</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>The user enters the wrong username and wrong password</t>
+  </si>
+  <si>
+    <t>The user enters the wrong username and password, and an error popup will appear</t>
+  </si>
+  <si>
+    <t>The user enters the wrong username and right password</t>
+  </si>
+  <si>
+    <t>The user enters the wrong username and right password, and an error popup will appear</t>
+  </si>
+  <si>
+    <t>The user enters the right username and wrong password</t>
+  </si>
+  <si>
+    <t>The user enters the right username and wrong password, and an error popup will appear</t>
+  </si>
+  <si>
+    <t>The user enters the right username and right password</t>
+  </si>
+  <si>
+    <t>The user enters the right username and right password, they will then be redirected back to the main page</t>
   </si>
 </sst>
 </file>
@@ -342,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -367,9 +410,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -402,7 +442,301 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -852,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,17 +1206,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -890,16 +1224,16 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -945,8 +1279,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:12" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="8">
@@ -979,8 +1313,8 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="8">
@@ -1013,8 +1347,8 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:12" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
       <c r="B6" s="8">
@@ -1047,8 +1381,8 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
       <c r="B7" s="8">
@@ -1081,8 +1415,8 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:12" s="10" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>1</v>
       </c>
       <c r="B8" s="8">
@@ -1115,8 +1449,8 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
       <c r="B9" s="8">
@@ -1149,118 +1483,212 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+    <row r="11" spans="1:12" s="10" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="J11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="J12" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>6</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="J13" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>6</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="J14" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>6.1</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>6.2</v>
-      </c>
+    <row r="16" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1269,16 +1697,12 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>6.2</v>
-      </c>
+    <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1287,16 +1711,12 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>6.2</v>
-      </c>
+    <row r="18" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1305,16 +1725,12 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>6.2</v>
-      </c>
+    <row r="19" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1323,13 +1739,11 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1343,7 +1757,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1357,7 +1771,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1371,7 +1785,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1385,7 +1799,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1399,7 +1813,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1413,7 +1827,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1427,7 +1841,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1441,7 +1855,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1455,7 +1869,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1470,7 +1884,7 @@
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F30" s="14"/>
+      <c r="F30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1478,81 +1892,147 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1:J4 J10:J18 J20:J1048576">
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Invalid Test">
+  <conditionalFormatting sqref="J1:J4 J16:J18 J20:J1048576">
+    <cfRule type="containsText" dxfId="62" priority="43" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="61" priority="44" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="60" priority="45" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="59" priority="40" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="58" priority="41" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="57" priority="42" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="56" priority="37" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="55" priority="38" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="53" priority="31" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="52" priority="32" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="51" priority="33" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="50" priority="28" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="49" priority="29" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="48" priority="30" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="46" priority="26" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/Test Plan for Professional Practices.xlsx
+++ b/Files/Test Plan for Professional Practices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
   <si>
     <t>Purpose:</t>
   </si>
@@ -206,6 +206,31 @@
   </si>
   <si>
     <t>The user enters the right username and right password, they will then be redirected back to the main page</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>1. Launch Home page
+2. Notes</t>
+  </si>
+  <si>
+    <t>The admin can click a marker and add notes to the marker</t>
+  </si>
+  <si>
+    <t>The admin can click a marker and can override old notes attached to the marker</t>
+  </si>
+  <si>
+    <t>The admin can click a marker and add notes to the marker about its status</t>
+  </si>
+  <si>
+    <t>The admin can click a marker and can override the old notes attachet to the marker</t>
+  </si>
+  <si>
+    <t>The admin can click a marker and can delete the notes attached to the marker</t>
+  </si>
+  <si>
+    <t>The admin can click a marker and can delete any old notes that are on the marker</t>
   </si>
 </sst>
 </file>
@@ -442,49 +467,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="57">
     <dxf>
       <fill>
         <patternFill>
@@ -1186,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1687,45 +1670,105 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
+    <row r="16" spans="1:12" s="10" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
@@ -1892,147 +1935,180 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1:J4 J16:J18 J20:J1048576">
-    <cfRule type="containsText" dxfId="62" priority="43" operator="containsText" text="Invalid Test">
+  <conditionalFormatting sqref="J1:J4 J20:J1048576">
+    <cfRule type="containsText" dxfId="56" priority="52" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="44" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="45" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="59" priority="40" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="41" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="42" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="56" priority="37" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="38" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="53" priority="31" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="47" priority="40" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="32" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="46" priority="41" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="33" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="45" priority="42" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="50" priority="28" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="44" priority="37" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="29" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="30" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="26" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="36" priority="33" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="33" priority="30" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",J18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/Test Plan for Professional Practices.xlsx
+++ b/Files/Test Plan for Professional Practices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
   <si>
     <t>Purpose:</t>
   </si>
@@ -231,6 +231,16 @@
   </si>
   <si>
     <t>The admin can click a marker and can delete any old notes that are on the marker</t>
+  </si>
+  <si>
+    <t>1. Launch Home page
+2. Status</t>
+  </si>
+  <si>
+    <t>The admin can click a marker and can change the status of a pothole to fixed, this will change the marker colour to green</t>
+  </si>
+  <si>
+    <t>The admin can click a marker and can change the status of a pothole to fixed, this will change the colour of the marker to green</t>
   </si>
 </sst>
 </file>
@@ -467,28 +477,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill>
@@ -1170,7 +1159,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1772,17 +1761,37 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
+    <row r="19" spans="1:12" s="10" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
@@ -1936,179 +1945,179 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J4 J20:J1048576">
-    <cfRule type="containsText" dxfId="56" priority="52" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="47" priority="40" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="44" priority="37" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="33" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="30" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/Test Plan for Professional Practices.xlsx
+++ b/Files/Test Plan for Professional Practices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="64">
   <si>
     <t>Purpose:</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>The admin can click a marker and can change the status of a pothole to fixed, this will change the colour of the marker to green</t>
+  </si>
+  <si>
+    <t>If the user selects Accident markers a yellow "A" marker will be added to the screen</t>
+  </si>
+  <si>
+    <t>The user selected Accident marker and a yellow "A" marker was added to the users location</t>
   </si>
 </sst>
 </file>
@@ -477,49 +483,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill>
@@ -1158,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,13 +1405,13 @@
         <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>12</v>
@@ -1945,178 +1909,178 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J4 J20:J1048576">
-    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="47" priority="55" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="46" priority="56" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="45" priority="57" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J19)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Files/Test Plan for Professional Practices.xlsx
+++ b/Files/Test Plan for Professional Practices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="66">
   <si>
     <t>Purpose:</t>
   </si>
@@ -141,12 +141,6 @@
 2. Add Markers</t>
   </si>
   <si>
-    <t>Select markers from the add markers button in the top left corner</t>
-  </si>
-  <si>
-    <t>The user selected a marker from the buttons in the top left corner</t>
-  </si>
-  <si>
     <t>Click the potholes markers, the marker will be added on the users location.</t>
   </si>
   <si>
@@ -157,12 +151,6 @@
   </si>
   <si>
     <t>The user selected pothole marker and an orange "p" marker landed on the map in the users location</t>
-  </si>
-  <si>
-    <t>If the user selects Accident markers a red "A" marker will be added to the screen</t>
-  </si>
-  <si>
-    <t>The user selected Accident marker and a red "A" marker was added to the users location</t>
   </si>
   <si>
     <t>1. Launch Home page
@@ -247,6 +235,25 @@
   </si>
   <si>
     <t>The user selected Accident marker and a yellow "A" marker was added to the users location</t>
+  </si>
+  <si>
+    <t>Select markers from the add markers button in the top right corner</t>
+  </si>
+  <si>
+    <t>The user selected a marker from the buttons in the top right corner</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>1. Launch Home page
+2. Clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user can clear the potholes on the map by clicking the select box in the top left side of the map </t>
+  </si>
+  <si>
+    <t>The user clicks the clear button up the top left corner of the map, and all the potholes markers are removed</t>
   </si>
 </sst>
 </file>
@@ -483,7 +490,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1122,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,13 +1352,13 @@
         <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>12</v>
@@ -1337,13 +1386,13 @@
         <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>12</v>
@@ -1371,13 +1420,13 @@
         <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>12</v>
@@ -1405,13 +1454,13 @@
         <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>12</v>
@@ -1430,22 +1479,22 @@
         <v>18</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>12</v>
@@ -1464,22 +1513,22 @@
         <v>18</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>12</v>
@@ -1498,22 +1547,22 @@
         <v>18</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>15</v>
@@ -1532,22 +1581,22 @@
         <v>18</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>15</v>
@@ -1566,22 +1615,22 @@
         <v>18</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>15</v>
@@ -1600,22 +1649,22 @@
         <v>18</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>12</v>
@@ -1634,22 +1683,22 @@
         <v>18</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>12</v>
@@ -1668,22 +1717,22 @@
         <v>18</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>12</v>
@@ -1702,22 +1751,22 @@
         <v>18</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>12</v>
@@ -1736,22 +1785,22 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>12</v>
@@ -1759,17 +1808,37 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
@@ -1908,180 +1977,191 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1:J4 J20:J1048576">
-    <cfRule type="containsText" dxfId="47" priority="55" operator="containsText" text="Invalid Test">
+  <conditionalFormatting sqref="J1:J4 J21:J1048576">
+    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="56" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="57" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/Test Plan for Professional Practices.xlsx
+++ b/Files/Test Plan for Professional Practices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
   <si>
     <t>Purpose:</t>
   </si>
@@ -247,13 +247,23 @@
   </si>
   <si>
     <t>1. Launch Home page
-2. Clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user can clear the potholes on the map by clicking the select box in the top left side of the map </t>
-  </si>
-  <si>
-    <t>The user clicks the clear button up the top left corner of the map, and all the potholes markers are removed</t>
+2. CheckBox</t>
+  </si>
+  <si>
+    <t>The user can click a checkbox in the top right hand corner of the map. This will allow an admin to see where the most frequent spots for accidents are, over the past 2 weeks</t>
+  </si>
+  <si>
+    <t>1. Launch Home page
+2. SearchBar</t>
+  </si>
+  <si>
+    <t>The user can click into the searchbar at the top of the application, where they can enter a location to see if there's any accidents or potholes heading towards their desired destination</t>
+  </si>
+  <si>
+    <t>The user clicks the searchbar, where they enter their desired location to see if there's any accident or potholes along the way</t>
+  </si>
+  <si>
+    <t>The user clicks the checkbox, and the map will display where all accident markers have been, over the past 2 weeks</t>
   </si>
 </sst>
 </file>
@@ -490,7 +500,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1171,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1834,25 +1865,45 @@
         <v>64</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
@@ -1977,191 +2028,202 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1:J4 J21:J1048576">
-    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="Invalid Test">
+  <conditionalFormatting sqref="J1:J4 J22:J1048576">
+    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Invalid Test">
-      <formula>NOT(ISERROR(SEARCH("Invalid Test",J20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",J21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/Test Plan for Professional Practices.xlsx
+++ b/Files/Test Plan for Professional Practices.xlsx
@@ -104,9 +104,6 @@
     <t>Test Case Name</t>
   </si>
   <si>
-    <t>Amazon.co.uk Login validation</t>
-  </si>
-  <si>
     <t>TC.001</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
 2. Login</t>
   </si>
   <si>
-    <t>The admin button is located in the top right hand side of the page in the menu bar</t>
-  </si>
-  <si>
     <t>The login/admin button is located n the left hand side of the screen in the menu bar</t>
   </si>
   <si>
@@ -264,6 +258,12 @@
   </si>
   <si>
     <t>The user clicks the checkbox, and the map will display where all accident markers have been, over the past 2 weeks</t>
+  </si>
+  <si>
+    <t>Road Disturbance Locator</t>
+  </si>
+  <si>
+    <t>The admin button is located in the top left hand side of the page in the menu bar</t>
   </si>
 </sst>
 </file>
@@ -500,28 +500,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill>
@@ -1202,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,7 +1220,7 @@
     </row>
     <row r="2" spans="1:12" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1303,25 +1282,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>12</v>
@@ -1337,25 +1316,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>12</v>
@@ -1371,25 +1350,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>12</v>
@@ -1405,25 +1384,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>12</v>
@@ -1439,25 +1418,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>12</v>
@@ -1473,25 +1452,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>12</v>
@@ -1507,25 +1486,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>12</v>
@@ -1541,25 +1520,25 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>12</v>
@@ -1575,25 +1554,25 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="F12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>15</v>
@@ -1609,25 +1588,25 @@
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>15</v>
@@ -1643,25 +1622,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>15</v>
@@ -1677,25 +1656,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>12</v>
@@ -1711,25 +1690,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="F16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>12</v>
@@ -1745,25 +1724,25 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>12</v>
@@ -1779,25 +1758,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>12</v>
@@ -1813,25 +1792,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>12</v>
@@ -1847,25 +1826,25 @@
         <v>1</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="F20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="H20" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>12</v>
@@ -1881,25 +1860,25 @@
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>12</v>
@@ -2029,200 +2008,200 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J4 J22:J1048576">
-    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="53" priority="61" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="52" priority="62" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="51" priority="63" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="50" priority="58" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="49" priority="59" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="48" priority="60" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
